--- a/biology/Médecine/Dicloxacilline/Dicloxacilline.xlsx
+++ b/biology/Médecine/Dicloxacilline/Dicloxacilline.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-La dicloxacilline est un antibiotique, proche de l'oxacilline, et utilisé pour traiter les infections à staphylocoques[1].
+La dicloxacilline est un antibiotique, proche de l'oxacilline, et utilisé pour traiter les infections à staphylocoques.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Mode d'action</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est un antibiotique de la famille des β-lactamine (comme la pénicilline). Il agit en interférant avec la paroi cellulaire bactérienne[2],[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est un antibiotique de la famille des β-lactamine (comme la pénicilline). Il agit en interférant avec la paroi cellulaire bactérienne,.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Usage médical</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cela peut inclure la cellulite, l'ostéomyélite et la pneumonie. Bien qu'il soit efficace contre les maladies résistantes à la pénicillinase, il n'est pas efficace contre le SARM . Elle est pris par voie orale[4],[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cela peut inclure la cellulite, l'ostéomyélite et la pneumonie. Bien qu'il soit efficace contre les maladies résistantes à la pénicillinase, il n'est pas efficace contre le SARM . Elle est pris par voie orale,.
 </t>
         </is>
       </c>
@@ -574,7 +590,9 @@
           <t>Effets secondaires</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Les effets secondaires courants comprennent les nausées, la diarrhée, les éruptions cutanées et les réactions allergiques; d'autres effets secondaires peuvent inclure l'anaphylaxie, la diarrhée à Clostridium difficile et un faible nombre de globules blancs . L'utilisation pendant la grossesse semble relativement sûre, mais n'a pas été bien étudiée. 
 </t>
@@ -605,9 +623,11 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La dicloxacilline a été brevetée en 1961 et approuvée pour un usage médical en 1968. Elle est disponible sous forme de médicament générique . Aux États-Unis, 40 comprimés de 500 mg coûtent environ 30 dollar américain en 2021[5],[6],[3].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La dicloxacilline a été brevetée en 1961 et approuvée pour un usage médical en 1968. Elle est disponible sous forme de médicament générique . Aux États-Unis, 40 comprimés de 500 mg coûtent environ 30 dollar américain en 2021.
 </t>
         </is>
       </c>
